--- a/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Sample</t>
   </si>
@@ -43,10 +43,19 @@
     <t>true_mean-</t>
   </si>
   <si>
+    <t>meanDiff</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -404,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +459,11 @@
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -474,7 +486,7 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>32</v>
@@ -483,16 +495,16 @@
         <v>0.816496580927726</v>
       </c>
       <c r="L2">
-        <v>0.816496580927726</v>
+        <v>0.8164965809277259</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -518,7 +530,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>32.75</v>
@@ -530,13 +542,16 @@
         <v>0.8869618443420321</v>
       </c>
       <c r="M3">
-        <v>0.6226292752111333</v>
+        <v>0.7846461836391805</v>
       </c>
       <c r="N3">
-        <v>-2.122629275211133</v>
+        <v>-2.284646183639181</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -562,7 +577,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>34.75</v>
@@ -574,13 +589,16 @@
         <v>0.658248290463863</v>
       </c>
       <c r="M4">
-        <v>-1.731319343541053</v>
+        <v>-1.611080402396842</v>
       </c>
       <c r="N4">
-        <v>-3.768680656458947</v>
+        <v>-3.888919597603158</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -606,7 +624,7 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>32.5</v>
@@ -618,13 +636,16 @@
         <v>0.6969234250586759</v>
       </c>
       <c r="M5">
-        <v>0.5785328612704765</v>
+        <v>0.7058363968840677</v>
       </c>
       <c r="N5">
-        <v>-1.578532861270477</v>
+        <v>-1.705836396884068</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -650,7 +671,7 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>32.75</v>
@@ -662,10 +683,13 @@
         <v>0.8869618443420321</v>
       </c>
       <c r="M6">
-        <v>0.6226292752111333</v>
+        <v>0.7846461836391805</v>
       </c>
       <c r="N6">
-        <v>-2.122629275211133</v>
+        <v>-2.284646183639181</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Sample</t>
   </si>
@@ -503,6 +503,9 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">

--- a/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
@@ -52,10 +52,10 @@
     <t>NaN</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
         <v>0.816496580927726</v>
       </c>
       <c r="L2">
-        <v>0.8164965809277259</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -542,13 +542,13 @@
         <v>0.9574271077563381</v>
       </c>
       <c r="L3">
-        <v>0.8869618443420321</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7846461836391805</v>
+        <v>-0.75</v>
       </c>
       <c r="N3">
-        <v>-2.284646183639181</v>
+        <v>-0.75</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
@@ -589,16 +589,16 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>0.658248290463863</v>
+        <v>0.67700320038633</v>
       </c>
       <c r="M4">
-        <v>-1.611080402396842</v>
+        <v>-1.578630132838334</v>
       </c>
       <c r="N4">
-        <v>-3.888919597603158</v>
+        <v>-3.921369867161666</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -636,16 +636,16 @@
         <v>0.5773502691896257</v>
       </c>
       <c r="L5">
-        <v>0.6969234250586759</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="M5">
-        <v>0.7058363968840677</v>
+        <v>0.7234559243958405</v>
       </c>
       <c r="N5">
-        <v>-1.705836396884068</v>
+        <v>-1.72345592439584</v>
       </c>
       <c r="O5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -683,16 +683,16 @@
         <v>0.9574271077563381</v>
       </c>
       <c r="L6">
-        <v>0.8869618443420321</v>
+        <v>0.8897565210026093</v>
       </c>
       <c r="M6">
-        <v>0.7846461836391805</v>
+        <v>0.7894816113399539</v>
       </c>
       <c r="N6">
-        <v>-2.284646183639181</v>
+        <v>-2.289481611339954</v>
       </c>
       <c r="O6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_Custom_455G4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Sample</t>
   </si>
@@ -52,10 +52,10 @@
     <t>NaN</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
       <c r="K2">
         <v>0.816496580927726</v>
       </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="L2" t="s">
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -542,13 +542,13 @@
         <v>0.9574271077563381</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.8897565210026093</v>
       </c>
       <c r="M3">
-        <v>-0.75</v>
+        <v>0.7894816113399539</v>
       </c>
       <c r="N3">
-        <v>-0.75</v>
+        <v>-2.289481611339954</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
@@ -598,7 +598,7 @@
         <v>-3.921369867161666</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -645,7 +645,7 @@
         <v>-1.72345592439584</v>
       </c>
       <c r="O5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -692,7 +692,7 @@
         <v>-2.289481611339954</v>
       </c>
       <c r="O6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
